--- a/format-check/excel.xlsx
+++ b/format-check/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hadar\Desktop\Projects\docs-version-control\format-check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C369A534-A0D9-4F85-B93E-1E25179B6209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A41BDA6-6918-4E1F-99BF-D01A97E207A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>b</t>
+    <t>c</t>
   </si>
   <si>
-    <t>c</t>
+    <t>y</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
@@ -351,15 +354,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -369,16 +372,24 @@
       <c r="C1">
         <v>3</v>
       </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
